--- a/src/main/resources/123-madao_service/service-article_attribute.xlsx
+++ b/src/main/resources/123-madao_service/service-article_attribute.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="245">
   <si>
     <t>类名</t>
   </si>
@@ -633,15 +633,39 @@
     <t>com.madao.article.controller.blog.ApiTagsController</t>
   </si>
   <si>
+    <t>findArticleByCondition(com.madao.model.dto.article.TagDto,org.springframework.data.domain.Pageable)</t>
+  </si>
+  <si>
+    <t>com.madao.model.dto.article.TagDto,org.springframework.data.domain.Pageable</t>
+  </si>
+  <si>
     <t>com.madao.article.controller.blog.ApiCategoryController</t>
   </si>
   <si>
+    <t>findCategoryByCondition(com.madao.model.dto.article.CategoryDto,org.springframework.data.domain.Pageable)</t>
+  </si>
+  <si>
+    <t>com.madao.model.dto.article.CategoryDto,org.springframework.data.domain.Pageable</t>
+  </si>
+  <si>
     <t>com.madao.article.controller.blog.ApiArticleController</t>
   </si>
   <si>
     <t>findArticleHot(java.lang.String)</t>
   </si>
   <si>
+    <t>findArticleByTagId(java.lang.String,org.springframework.data.domain.Pageable)</t>
+  </si>
+  <si>
+    <t>java.lang.String,org.springframework.data.domain.Pageable</t>
+  </si>
+  <si>
+    <t>findArticleByCondition(com.madao.model.dto.article.ArticleDto,java.lang.String,java.lang.String,org.springframework.data.domain.Pageable)</t>
+  </si>
+  <si>
+    <t>com.madao.model.dto.article.ArticleDto,java.lang.String,java.lang.String,org.springframework.data.domain.Pageable</t>
+  </si>
+  <si>
     <t>findAdminInfo()</t>
   </si>
   <si>
@@ -687,6 +711,12 @@
     <t>com.madao.article.controller.backstage.CommentController</t>
   </si>
   <si>
+    <t>findCommentByCondition(com.madao.model.dto.article.CommentDto,org.springframework.data.domain.Pageable)</t>
+  </si>
+  <si>
+    <t>com.madao.model.dto.article.CommentDto,org.springframework.data.domain.Pageable</t>
+  </si>
+  <si>
     <t>updateByCommentSelective(com.madao.model.dto.article.CommentDto)</t>
   </si>
   <si>
@@ -699,16 +729,25 @@
     <t>com.madao.article.controller.backstage.ArticleController</t>
   </si>
   <si>
-    <t>updateByPrimaryKeySelective(javax.servlet.http.HttpServletRequest)</t>
-  </si>
-  <si>
-    <t>insertArticle(javax.servlet.http.HttpServletRequest)</t>
+    <t>updateByPrimaryKeySelective(com.madao.model.dto.article.ArticleDto,javax.servlet.http.HttpServletRequest)</t>
+  </si>
+  <si>
+    <t>com.madao.model.dto.article.ArticleDto,javax.servlet.http.HttpServletRequest</t>
+  </si>
+  <si>
+    <t>insertArticle(com.madao.model.dto.article.ArticleDto,javax.servlet.http.HttpServletRequest)</t>
   </si>
   <si>
     <t>updateThumb(org.springframework.web.multipart.MultipartFile)</t>
   </si>
   <si>
     <t>org.springframework.web.multipart.MultipartFile</t>
+  </si>
+  <si>
+    <t>findArticleByCondition(com.madao.model.dto.article.ArticleDto,org.springframework.data.domain.Pageable)</t>
+  </si>
+  <si>
+    <t>com.madao.model.dto.article.ArticleDto,org.springframework.data.domain.Pageable</t>
   </si>
 </sst>
 </file>
@@ -2630,10 +2669,10 @@
         <v>205</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="D8" t="s">
         <v>200</v>
@@ -2644,13 +2683,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="D9" t="s">
         <v>200</v>
@@ -2661,7 +2700,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
         <v>161</v>
@@ -2678,7 +2717,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B11" t="s">
         <v>105</v>
@@ -2695,7 +2734,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -2712,10 +2751,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -2729,13 +2768,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>213</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="D14" t="s">
         <v>200</v>
@@ -2746,13 +2785,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="D15" t="s">
         <v>200</v>
@@ -2763,10 +2802,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -2780,7 +2819,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B17" t="s">
         <v>116</v>
@@ -2797,10 +2836,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B18" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -2814,13 +2853,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C19" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D19" t="s">
         <v>200</v>
@@ -2831,7 +2870,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -2848,10 +2887,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -2865,7 +2904,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s">
         <v>116</v>
@@ -2882,7 +2921,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s">
         <v>105</v>
@@ -2899,10 +2938,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C24" t="s">
         <v>38</v>
@@ -2916,10 +2955,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
@@ -2933,13 +2972,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="D26" t="s">
         <v>200</v>
@@ -2950,10 +2989,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
@@ -2967,10 +3006,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B28" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C28" t="s">
         <v>134</v>
@@ -2984,7 +3023,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B29" t="s">
         <v>82</v>
@@ -3001,13 +3040,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>209</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="D30" t="s">
         <v>200</v>
@@ -3018,10 +3057,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B31" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C31" t="s">
         <v>134</v>
@@ -3035,10 +3074,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B32" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -3052,7 +3091,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -3069,13 +3108,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>232</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>233</v>
       </c>
       <c r="D34" t="s">
         <v>200</v>
@@ -3086,10 +3125,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B35" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
@@ -3103,10 +3142,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B36" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
@@ -3120,10 +3159,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B37" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -3137,7 +3176,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B38" t="s">
         <v>17</v>
@@ -3154,13 +3193,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B39" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>239</v>
       </c>
       <c r="D39" t="s">
         <v>200</v>
@@ -3171,13 +3210,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B40" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>239</v>
       </c>
       <c r="D40" t="s">
         <v>200</v>
@@ -3188,13 +3227,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B41" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C41" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="D41" t="s">
         <v>200</v>
@@ -3205,13 +3244,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>244</v>
       </c>
       <c r="D42" t="s">
         <v>200</v>
@@ -3222,7 +3261,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B43" t="s">
         <v>146</v>
@@ -3239,7 +3278,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
